--- a/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons-3rd/lesson-9.xlsx
+++ b/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons-3rd/lesson-9.xlsx
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>緑／グリーンのセーター|みどり／グリーンのセーター</t>
+          <t>緑のセーター／グリーンのセーター|みどりのセーター／グリーンのセーター</t>
         </is>
       </c>
     </row>
